--- a/biology/Zoologie/Anolis_planiceps/Anolis_planiceps.xlsx
+++ b/biology/Zoologie/Anolis_planiceps/Anolis_planiceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis planiceps est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis planiceps est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil au Roraima et en Amazonas ;
 au Guyana ;
 au Venezuela en Amazonas et au Bolívar ;
@@ -545,9 +559,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis eewi[2] a  été placée en synonymie avec Anolis planiceps par Myers et Donnelly en 2008[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis eewi a  été placée en synonymie avec Anolis planiceps par Myers et Donnelly en 2008.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Troschel, 1848 : Amphibien. Reisen in Britisch-Guiana in den Jahren 1840-44. Im Auftrage Sr. Majestät des Königs von Preussen ausgeführt. Theil 3. Versuch einer Zusammenstellung der Fauna und Flora von British-Guiana. Leipzig, p. 645-661 (texte intégral).</t>
         </is>
